--- a/api_admin/excels/Datos_Ejemplos.xlsx
+++ b/api_admin/excels/Datos_Ejemplos.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Ejemplos_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5453E06-C75B-4E75-B20D-4B2DA932974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD9500B-2295-48C0-B53C-391A4221D47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="19800" windowHeight="10290" activeTab="1" xr2:uid="{F673EB76-743D-4B0D-96C3-C32891F51760}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{F673EB76-743D-4B0D-96C3-C32891F51760}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ej_1" sheetId="2" r:id="rId1"/>
-    <sheet name="Ej_2" sheetId="1" r:id="rId2"/>
+    <sheet name="Datos_Ej1" sheetId="2" r:id="rId1"/>
+    <sheet name="Datos2_Ej1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Archivos</t>
+    <t>Datos 1</t>
+  </si>
+  <si>
+    <t>Datos 2</t>
+  </si>
+  <si>
+    <t>Datos 3</t>
+  </si>
+  <si>
+    <t>Datos 4</t>
   </si>
 </sst>
 </file>
@@ -389,47 +398,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619F0D0C-27D8-452A-8019-6FF267282AD0}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>80</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -439,47 +469,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5286FA33-8335-4F16-8FFE-4911A034FBC6}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>95</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/api_admin/excels/Datos_Ejemplos.xlsx
+++ b/api_admin/excels/Datos_Ejemplos.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Ejemplos_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9299FA6-033F-4026-A546-3D0FDC8890A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124CBB94-33F6-4E11-8460-A86432993D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25245" windowHeight="12240" activeTab="3" xr2:uid="{F673EB76-743D-4B0D-96C3-C32891F51760}"/>
+    <workbookView xWindow="13095" yWindow="0" windowWidth="13410" windowHeight="14235" firstSheet="3" activeTab="4" xr2:uid="{F673EB76-743D-4B0D-96C3-C32891F51760}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Ej1" sheetId="2" r:id="rId1"/>
     <sheet name="Datos2_Ej1" sheetId="1" r:id="rId2"/>
     <sheet name="Frecuencias_Ej1" sheetId="3" r:id="rId3"/>
     <sheet name="Intervalos_Ej2" sheetId="4" r:id="rId4"/>
+    <sheet name="Intervalos_Ej2.5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Datos 1</t>
   </si>
@@ -73,6 +74,9 @@
   </si>
   <si>
     <t>40 , 49</t>
+  </si>
+  <si>
+    <t>Planilla de sueldos y salarios de la institucion ABC</t>
   </si>
 </sst>
 </file>
@@ -108,11 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBDFC2D-AD15-45F4-8544-9662D8A5E844}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,4 +892,274 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5001DBD-AAC3-41E2-9650-E87669B5D519}">
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>8440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>15490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>8870</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>8500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/api_admin/excels/Datos_Ejemplos.xlsx
+++ b/api_admin/excels/Datos_Ejemplos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Ejemplos_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124CBB94-33F6-4E11-8460-A86432993D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1139DB94-FC4F-4226-B760-1E9216CD6114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="0" windowWidth="13410" windowHeight="14235" firstSheet="3" activeTab="4" xr2:uid="{F673EB76-743D-4B0D-96C3-C32891F51760}"/>
+    <workbookView xWindow="6615" yWindow="2010" windowWidth="16680" windowHeight="10290" firstSheet="3" activeTab="5" xr2:uid="{F673EB76-743D-4B0D-96C3-C32891F51760}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Ej1" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Frecuencias_Ej1" sheetId="3" r:id="rId3"/>
     <sheet name="Intervalos_Ej2" sheetId="4" r:id="rId4"/>
     <sheet name="Intervalos_Ej2.5" sheetId="5" r:id="rId5"/>
+    <sheet name="Ejemplo 2.9" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="73">
   <si>
     <t>Datos 1</t>
   </si>
@@ -77,6 +78,186 @@
   </si>
   <si>
     <t>Planilla de sueldos y salarios de la institucion ABC</t>
+  </si>
+  <si>
+    <t>AME</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>BSK</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>BSP</t>
+  </si>
+  <si>
+    <t>GAC</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>MFC</t>
+  </si>
+  <si>
+    <t>UFM</t>
+  </si>
+  <si>
+    <t>EAF</t>
+  </si>
+  <si>
+    <t>EFE</t>
+  </si>
+  <si>
+    <t>FCI</t>
+  </si>
+  <si>
+    <t>OFI</t>
+  </si>
+  <si>
+    <t>OPU</t>
+  </si>
+  <si>
+    <t>PBC</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>CFB</t>
+  </si>
+  <si>
+    <t>CCP</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>FAE</t>
+  </si>
+  <si>
+    <t>FOI</t>
+  </si>
+  <si>
+    <t>FFI</t>
+  </si>
+  <si>
+    <t>FII</t>
+  </si>
+  <si>
+    <t>FOL</t>
+  </si>
+  <si>
+    <t>FOP</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>FRM</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>UFV</t>
+  </si>
+  <si>
+    <t>IFI</t>
+  </si>
+  <si>
+    <t>MIC_A</t>
+  </si>
+  <si>
+    <t>MIC_B</t>
+  </si>
+  <si>
+    <t>MIC_C</t>
+  </si>
+  <si>
+    <t>MIC_D</t>
+  </si>
+  <si>
+    <t>FFY</t>
+  </si>
+  <si>
+    <t>AGP</t>
+  </si>
+  <si>
+    <t>KFC</t>
+  </si>
+  <si>
+    <t>CRB</t>
+  </si>
+  <si>
+    <t>EFC</t>
+  </si>
+  <si>
+    <t>HOR</t>
+  </si>
+  <si>
+    <t>MFM</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>SFM</t>
+  </si>
+  <si>
+    <t>FPP_A</t>
+  </si>
+  <si>
+    <t>FPP_B</t>
+  </si>
+  <si>
+    <t>DUN</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>PQU</t>
+  </si>
+  <si>
+    <t>PUC</t>
+  </si>
+  <si>
+    <t>XTU</t>
+  </si>
+  <si>
+    <t>RBF</t>
+  </si>
+  <si>
+    <t>RAC</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>RAP</t>
+  </si>
+  <si>
+    <t>Fondo</t>
+  </si>
+  <si>
+    <t>Tipo de fondo</t>
+  </si>
+  <si>
+    <t>Moneda</t>
   </si>
 </sst>
 </file>
@@ -898,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5001DBD-AAC3-41E2-9650-E87669B5D519}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1162,4 +1343,602 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEB6C63-34E1-4EB8-A5AB-FD3CF2C483CB}">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>